--- a/differences_6_0.4.xlsx
+++ b/differences_6_0.4.xlsx
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.09699999999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.154</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09799999999999998</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03499999999999998</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.106</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.09399999999999997</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07299999999999995</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-0.111</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-0.02100000000000002</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-0.02699999999999997</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0.02299999999999991</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.07600000000000001</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3413,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04300000000000004</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.07299999999999995</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-0.02899999999999997</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-0.04699999999999999</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-0.04100000000000004</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.04299999999999993</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4161,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.09599999999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4449,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-0.122</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>-0.03499999999999998</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.05100000000000005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-0.08700000000000002</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4609,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-0.02900000000000003</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-0.03300000000000003</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.03199999999999997</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>2.758823529411765</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.06100000000000005</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
